--- a/QQ_ht.xlsx
+++ b/QQ_ht.xlsx
@@ -541,7 +541,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>2.072515841377483</v>
+        <v>2.072515841377482</v>
       </c>
     </row>
     <row r="38">
@@ -641,7 +641,7 @@
     </row>
     <row r="57">
       <c r="A57">
-        <v>1.671223258083499</v>
+        <v>1.671223258083498</v>
       </c>
     </row>
     <row r="58">
@@ -656,7 +656,7 @@
     </row>
     <row r="60">
       <c r="A60">
-        <v>1.228329529998135</v>
+        <v>1.228329529998134</v>
       </c>
     </row>
     <row r="61">
@@ -836,7 +836,7 @@
     </row>
     <row r="96">
       <c r="A96">
-        <v>-5.672338505610624</v>
+        <v>-5.672338505610623</v>
       </c>
     </row>
     <row r="97">
